--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.13270872094</v>
+        <v>45711.14778379937</v>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 03:11:06.033489 - Your random number is 93
+          <t xml:space="preserve">2025-02-23 03:32:48.520266 - Your random number is 16
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.14778379937</v>
+        <v>45711.15759129242</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 03:32:48.520266 - Your random number is 16
+          <t xml:space="preserve">2025-02-23 03:46:55.887665 - Your random number is 38
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.15759129242</v>
+        <v>45711.17425323377</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 03:46:55.887665 - Your random number is 38
+          <t xml:space="preserve">2025-02-23 04:10:55.479398 - Your random number is 31
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.17425323377</v>
+        <v>45711.18806028377</v>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 04:10:55.479398 - Your random number is 31
+          <t xml:space="preserve">2025-02-23 04:30:48.408518 - Your random number is 5
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.18806028377</v>
+        <v>45711.19946544887</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 04:30:48.408518 - Your random number is 5
+          <t xml:space="preserve">2025-02-23 04:47:13.814782 - Your random number is 37
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.19946544887</v>
+        <v>45711.21455089287</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 04:47:13.814782 - Your random number is 37
+          <t xml:space="preserve">2025-02-23 05:08:57.197144 - Your random number is 82
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.21455089287</v>
+        <v>45711.22796824444</v>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 05:08:57.197144 - Your random number is 82
+          <t xml:space="preserve">2025-02-23 05:28:16.456320 - Your random number is 43
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.22796824444</v>
+        <v>45711.23436200054</v>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 05:28:16.456320 - Your random number is 43
+          <t xml:space="preserve">2025-02-23 05:37:28.876847 - Your random number is 94
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.23436200054</v>
+        <v>45711.24062747924</v>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 05:37:28.876847 - Your random number is 94
+          <t xml:space="preserve">2025-02-23 05:46:30.214207 - Your random number is 68
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.24062747924</v>
+        <v>45711.25839419109</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 05:46:30.214207 - Your random number is 68
+          <t xml:space="preserve">2025-02-23 06:12:05.258110 - Your random number is 27
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.25839419109</v>
+        <v>45711.27315214543</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 06:12:05.258110 - Your random number is 27
+          <t xml:space="preserve">2025-02-23 06:33:20.345365 - Your random number is 72
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.27315214543</v>
+        <v>45711.28260875458</v>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 06:33:20.345365 - Your random number is 72
+          <t xml:space="preserve">2025-02-23 06:46:57.396396 - Your random number is 31
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.28260875458</v>
+        <v>45711.29784903028</v>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 06:46:57.396396 - Your random number is 31
+          <t xml:space="preserve">2025-02-23 07:08:54.156216 - Your random number is 96
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.29784903028</v>
+        <v>45711.30820418705</v>
       </c>
       <c r="C2" t="n">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 07:08:54.156216 - Your random number is 96
+          <t xml:space="preserve">2025-02-23 07:23:48.841761 - Your random number is 23
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.30820418705</v>
+        <v>45711.31382111047</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 07:23:48.841761 - Your random number is 23
+          <t xml:space="preserve">2025-02-23 07:31:54.143945 - Your random number is 64
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.31382111047</v>
+        <v>45711.32398281309</v>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 07:31:54.143945 - Your random number is 64
+          <t xml:space="preserve">2025-02-23 07:46:32.115051 - Your random number is 97
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.32398281309</v>
+        <v>45711.34093210495</v>
       </c>
       <c r="C2" t="n">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 07:46:32.115051 - Your random number is 97
+          <t xml:space="preserve">2025-02-23 08:10:56.533868 - Your random number is 36
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.34093210495</v>
+        <v>45711.35470717081</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 08:10:56.533868 - Your random number is 36
+          <t xml:space="preserve">2025-02-23 08:30:46.699558 - Your random number is 92
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.35470717081</v>
+        <v>45711.36604206217</v>
       </c>
       <c r="C2" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 08:30:46.699558 - Your random number is 92
+          <t xml:space="preserve">2025-02-23 08:47:06.034171 - Your random number is 99
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.36604206217</v>
+        <v>45711.38091395098</v>
       </c>
       <c r="C2" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 08:47:06.034171 - Your random number is 99
+          <t xml:space="preserve">2025-02-23 09:08:30.965364 - Your random number is 89
 </t>
         </is>
       </c>

--- a/Youtube-Out.xlsx
+++ b/Youtube-Out.xlsx
@@ -459,14 +459,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45711.38091395098</v>
+        <v>45711.38280385394</v>
       </c>
       <c r="C2" t="n">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2025-02-23 09:08:30.965364 - Your random number is 89
+          <t xml:space="preserve">2025-02-23 09:11:14.252981 - Your random number is 3
 </t>
         </is>
       </c>
